--- a/Movie Ticketing System.xlsx
+++ b/Movie Ticketing System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{839F2594-0F0A-4358-9CDB-1D3AAFBF220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CAC788-C5F2-4704-84A5-A9486E5E3592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="166">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -493,6 +493,51 @@
   </si>
   <si>
     <t>Entered text is hidden</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David H </t>
+  </si>
+  <si>
+    <t>Navigated to Home Page</t>
+  </si>
+  <si>
+    <t>Logged in to account</t>
+  </si>
+  <si>
+    <t>Movie schedule page displayed</t>
+  </si>
+  <si>
+    <t>Selected seats are highlihgted</t>
+  </si>
+  <si>
+    <t>Succesfully input card information</t>
+  </si>
+  <si>
+    <t>Payment error message is diaplyed</t>
+  </si>
+  <si>
+    <t>Ticket numbers displatyed on tickets</t>
+  </si>
+  <si>
+    <t>Nearby theaters ar e returned</t>
+  </si>
+  <si>
+    <t>New entry exists</t>
+  </si>
+  <si>
+    <t>Succesfully logged in</t>
+  </si>
+  <si>
+    <t>Selected seats were assigned</t>
+  </si>
+  <si>
+    <t>Cannot select unavailable seats</t>
+  </si>
+  <si>
+    <t>Available movies are displayed</t>
   </si>
 </sst>
 </file>
@@ -556,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -653,22 +698,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -698,12 +732,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,10 +1183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1472,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,29 +1505,29 @@
     <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="15.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1515,19 +1539,19 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -1547,21 +1571,27 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1573,21 +1603,27 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1599,23 +1635,29 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1625,23 +1667,29 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1651,21 +1699,27 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="6"/>
+      <c r="H7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1677,21 +1731,27 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1703,21 +1763,27 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1729,23 +1795,29 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1755,23 +1827,29 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1781,23 +1859,29 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1807,23 +1891,29 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1833,21 +1923,27 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
+      <c r="H14" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1859,19 +1955,25 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="6"/>
+      <c r="H15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1883,19 +1985,25 @@
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="6"/>
+      <c r="H16" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1907,19 +2015,25 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="6"/>
+      <c r="H17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1931,21 +2045,27 @@
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1955,19 +2075,25 @@
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
+      <c r="H19" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1979,21 +2105,27 @@
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -2003,21 +2135,27 @@
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -2027,21 +2165,27 @@
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2051,21 +2195,27 @@
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
@@ -2075,21 +2225,27 @@
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
@@ -2099,21 +2255,27 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
@@ -2123,21 +2285,27 @@
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
@@ -2147,21 +2315,27 @@
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -2171,21 +2345,27 @@
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -2195,19 +2375,25 @@
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="6"/>
+      <c r="H29" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2219,15 +2405,19 @@
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="6"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2239,15 +2429,19 @@
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2259,17 +2453,21 @@
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -2279,21 +2477,27 @@
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H33" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -2303,21 +2507,27 @@
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>81</v>
       </c>
@@ -2327,19 +2537,25 @@
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
+      <c r="H35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
